--- a/RohrleitungsGenerator/Resources/database2.xlsx
+++ b/RohrleitungsGenerator/Resources/database2.xlsx
@@ -5,29 +5,40 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maxim Stötzer\Studium\6. Semester\CAD 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfp\source\repos\RohrleitungsGenerator\RohrleitungsGenerator\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B894D7BD-0D38-4BE5-84B2-8E57F2A33B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDADCEC-BD95-4113-8363-230670B4D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="15" windowWidth="22230" windowHeight="15600" activeTab="2" xr2:uid="{110C74DA-F789-439E-81C3-9AA71BC2C89D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{110C74DA-F789-439E-81C3-9AA71BC2C89D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Außenradius</t>
   </si>
@@ -214,12 +225,15 @@
   </si>
   <si>
     <t>Gas</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -281,11 +295,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -301,12 +326,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{36324B6E-28E5-4561-B4E1-165BFC8BB127}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -319,9 +347,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +387,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +493,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E72AC53-228E-42AB-A1B8-0BA2A388ADE4}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +656,7 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,8 +666,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.065E-2</v>
       </c>
@@ -650,7 +681,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.345E-2</v>
       </c>
@@ -661,7 +692,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.685E-2</v>
       </c>
@@ -672,7 +703,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.12E-2</v>
       </c>
@@ -683,7 +714,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.4150000000000001E-2</v>
       </c>
@@ -694,7 +725,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.015E-2</v>
       </c>
@@ -705,7 +736,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.805E-2</v>
       </c>
@@ -716,7 +747,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.4450000000000003E-2</v>
       </c>
@@ -727,7 +758,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.7149999999999999E-2</v>
       </c>
@@ -738,7 +769,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6.9849999999999995E-2</v>
       </c>
@@ -749,7 +780,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8.4150000000000003E-2</v>
       </c>
@@ -760,7 +791,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.10954999999999999</v>
       </c>
@@ -771,7 +802,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.13650000000000001</v>
       </c>
@@ -782,7 +813,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.16195000000000001</v>
       </c>
@@ -793,7 +824,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.17780000000000001</v>
       </c>
@@ -998,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33EAA41-521D-4A81-8957-1E8CD5191B2D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
